--- a/Comfort Foods.xlsx
+++ b/Comfort Foods.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aliciacorke/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aliciacorke/Desktop/Comfort-food-Nursing-Home-Meals/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B301740B-2996-7D45-A32B-DF20A4CAEDF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39B2CB46-F129-3445-9B37-682000CE042F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1340" yWindow="600" windowWidth="28040" windowHeight="17180" xr2:uid="{93E85E0F-435C-CE4F-A8A5-CFEE0602054D}"/>
+    <workbookView xWindow="8500" yWindow="580" windowWidth="28040" windowHeight="17180" xr2:uid="{93E85E0F-435C-CE4F-A8A5-CFEE0602054D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
   <si>
     <t>Comfort Foods - Meals for seniors (WBS) Work breakdown sheet</t>
   </si>
@@ -81,13 +81,31 @@
   </si>
   <si>
     <t>PHASE I. (Preliminary Exploration)</t>
+  </si>
+  <si>
+    <t>Images:</t>
+  </si>
+  <si>
+    <t>Acquiring Images</t>
+  </si>
+  <si>
+    <t>Logo</t>
+  </si>
+  <si>
+    <t>Wireframe</t>
+  </si>
+  <si>
+    <t>Milestone 1: Top-level Markup</t>
+  </si>
+  <si>
+    <t>PHASE II. (Coding)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -194,8 +212,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Avenir Book"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -250,6 +275,18 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -366,74 +403,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -442,63 +428,39 @@
     <xf numFmtId="0" fontId="13" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -509,6 +471,131 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -824,437 +911,681 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7550C913-9287-B048-8F5D-09F64BE28F0F}">
-  <dimension ref="A1:N23"/>
+  <dimension ref="A1:N35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M33" sqref="M33:N35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:14">
+      <c r="A1" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A5" s="7" t="s">
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="50"/>
+      <c r="N1" s="50"/>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="50"/>
+      <c r="B2" s="50"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="50"/>
+      <c r="K2" s="50"/>
+      <c r="L2" s="50"/>
+      <c r="M2" s="50"/>
+      <c r="N2" s="50"/>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="50"/>
+      <c r="B3" s="50"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="50"/>
+      <c r="H3" s="50"/>
+      <c r="I3" s="50"/>
+      <c r="J3" s="50"/>
+      <c r="K3" s="50"/>
+      <c r="L3" s="50"/>
+      <c r="M3" s="50"/>
+      <c r="N3" s="50"/>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="50"/>
+      <c r="B4" s="50"/>
+      <c r="C4" s="50"/>
+      <c r="D4" s="50"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="50"/>
+      <c r="H4" s="50"/>
+      <c r="I4" s="50"/>
+      <c r="J4" s="50"/>
+      <c r="K4" s="50"/>
+      <c r="L4" s="50"/>
+      <c r="M4" s="50"/>
+      <c r="N4" s="50"/>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="10" t="s">
+      <c r="B5" s="45"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="5" t="s">
+      <c r="H5" s="35"/>
+      <c r="I5" s="35"/>
+      <c r="J5" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="K5" s="12"/>
-      <c r="L5" s="12"/>
-      <c r="M5" s="5" t="s">
+      <c r="K5" s="48"/>
+      <c r="L5" s="48"/>
+      <c r="M5" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="N5" s="5"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="12"/>
-      <c r="M7" s="5"/>
-      <c r="N7" s="5"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="12"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5"/>
-    </row>
-    <row r="9" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="62" t="s">
+      <c r="N5" s="47"/>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="46"/>
+      <c r="B6" s="46"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="36"/>
+      <c r="H6" s="36"/>
+      <c r="I6" s="36"/>
+      <c r="J6" s="48"/>
+      <c r="K6" s="48"/>
+      <c r="L6" s="48"/>
+      <c r="M6" s="47"/>
+      <c r="N6" s="47"/>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="46"/>
+      <c r="B7" s="46"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="36"/>
+      <c r="H7" s="36"/>
+      <c r="I7" s="36"/>
+      <c r="J7" s="48"/>
+      <c r="K7" s="48"/>
+      <c r="L7" s="48"/>
+      <c r="M7" s="47"/>
+      <c r="N7" s="47"/>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="46"/>
+      <c r="B8" s="46"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="36"/>
+      <c r="I8" s="36"/>
+      <c r="J8" s="48"/>
+      <c r="K8" s="48"/>
+      <c r="L8" s="48"/>
+      <c r="M8" s="47"/>
+      <c r="N8" s="47"/>
+    </row>
+    <row r="9" spans="1:14" ht="16" customHeight="1">
+      <c r="A9" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="63"/>
-      <c r="C9" s="63"/>
-      <c r="D9" s="63"/>
-      <c r="E9" s="63"/>
-      <c r="F9" s="63"/>
-      <c r="G9" s="13">
+      <c r="B9" s="38"/>
+      <c r="C9" s="38"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="38"/>
+      <c r="G9" s="40">
         <v>30</v>
       </c>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="15" t="s">
+      <c r="H9" s="40"/>
+      <c r="I9" s="40"/>
+      <c r="J9" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="K9" s="15"/>
-      <c r="L9" s="15"/>
-      <c r="M9" s="15" t="s">
+      <c r="K9" s="42"/>
+      <c r="L9" s="42"/>
+      <c r="M9" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="N9" s="15"/>
-    </row>
-    <row r="10" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="64"/>
-      <c r="B10" s="64"/>
-      <c r="C10" s="64"/>
-      <c r="D10" s="64"/>
-      <c r="E10" s="64"/>
-      <c r="F10" s="64"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="16"/>
-      <c r="K10" s="16"/>
-      <c r="L10" s="16"/>
-      <c r="M10" s="16"/>
-      <c r="N10" s="16"/>
-    </row>
-    <row r="11" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="64"/>
-      <c r="B11" s="64"/>
-      <c r="C11" s="64"/>
-      <c r="D11" s="64"/>
-      <c r="E11" s="64"/>
-      <c r="F11" s="64"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="16"/>
-      <c r="K11" s="16"/>
-      <c r="L11" s="16"/>
-      <c r="M11" s="16"/>
-      <c r="N11" s="16"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A12" s="17"/>
-      <c r="B12" s="18">
+      <c r="N9" s="42"/>
+    </row>
+    <row r="10" spans="1:14" ht="16" customHeight="1">
+      <c r="A10" s="39"/>
+      <c r="B10" s="39"/>
+      <c r="C10" s="39"/>
+      <c r="D10" s="39"/>
+      <c r="E10" s="39"/>
+      <c r="F10" s="39"/>
+      <c r="G10" s="41"/>
+      <c r="H10" s="41"/>
+      <c r="I10" s="41"/>
+      <c r="J10" s="43"/>
+      <c r="K10" s="43"/>
+      <c r="L10" s="43"/>
+      <c r="M10" s="43"/>
+      <c r="N10" s="43"/>
+    </row>
+    <row r="11" spans="1:14" ht="16" customHeight="1">
+      <c r="A11" s="39"/>
+      <c r="B11" s="39"/>
+      <c r="C11" s="39"/>
+      <c r="D11" s="39"/>
+      <c r="E11" s="39"/>
+      <c r="F11" s="39"/>
+      <c r="G11" s="41"/>
+      <c r="H11" s="41"/>
+      <c r="I11" s="41"/>
+      <c r="J11" s="43"/>
+      <c r="K11" s="43"/>
+      <c r="L11" s="43"/>
+      <c r="M11" s="43"/>
+      <c r="N11" s="43"/>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" s="5"/>
+      <c r="B12" s="6">
         <v>1.1000000000000001</v>
       </c>
-      <c r="C12" s="61" t="s">
+      <c r="C12" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="61"/>
-      <c r="E12" s="61"/>
-      <c r="F12" s="61"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="17"/>
-      <c r="K12" s="17"/>
-      <c r="L12" s="17"/>
-      <c r="M12" s="19"/>
-      <c r="N12" s="20"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A13" s="17"/>
-      <c r="B13" s="18"/>
-      <c r="C13" s="61"/>
-      <c r="D13" s="61"/>
-      <c r="E13" s="61"/>
-      <c r="F13" s="61"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="17"/>
-      <c r="J13" s="17"/>
-      <c r="K13" s="17"/>
-      <c r="L13" s="17"/>
-      <c r="M13" s="21"/>
-      <c r="N13" s="22"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A14" s="23"/>
-      <c r="B14" s="24"/>
-      <c r="C14" s="24" t="s">
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="9"/>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13" s="5"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="10"/>
+      <c r="N13" s="11"/>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14" s="30"/>
+      <c r="B14" s="31"/>
+      <c r="C14" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="D14" s="27" t="s">
+      <c r="D14" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="E14" s="27"/>
-      <c r="F14" s="27"/>
-      <c r="G14" s="23"/>
-      <c r="H14" s="23"/>
-      <c r="I14" s="23"/>
-      <c r="J14" s="23"/>
-      <c r="K14" s="23"/>
-      <c r="L14" s="23"/>
-      <c r="M14" s="23"/>
-      <c r="N14" s="23"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A15" s="23"/>
-      <c r="B15" s="24"/>
-      <c r="C15" s="24"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="27"/>
-      <c r="F15" s="27"/>
-      <c r="G15" s="23"/>
-      <c r="H15" s="23"/>
-      <c r="I15" s="23"/>
-      <c r="J15" s="23"/>
-      <c r="K15" s="23"/>
-      <c r="L15" s="23"/>
-      <c r="M15" s="23"/>
-      <c r="N15" s="23"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A16" s="25"/>
-      <c r="B16" s="26"/>
-      <c r="C16" s="26" t="s">
+      <c r="E14" s="51"/>
+      <c r="F14" s="51"/>
+      <c r="G14" s="30"/>
+      <c r="H14" s="30"/>
+      <c r="I14" s="30"/>
+      <c r="J14" s="30"/>
+      <c r="K14" s="30"/>
+      <c r="L14" s="30"/>
+      <c r="M14" s="30"/>
+      <c r="N14" s="30"/>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15" s="30"/>
+      <c r="B15" s="31"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="51"/>
+      <c r="E15" s="51"/>
+      <c r="F15" s="51"/>
+      <c r="G15" s="30"/>
+      <c r="H15" s="30"/>
+      <c r="I15" s="30"/>
+      <c r="J15" s="30"/>
+      <c r="K15" s="30"/>
+      <c r="L15" s="30"/>
+      <c r="M15" s="30"/>
+      <c r="N15" s="30"/>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16" s="18"/>
+      <c r="B16" s="29"/>
+      <c r="C16" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="D16" s="28" t="s">
+      <c r="D16" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="E16" s="28"/>
-      <c r="F16" s="28"/>
-      <c r="G16" s="25"/>
-      <c r="H16" s="25"/>
-      <c r="I16" s="25"/>
-      <c r="J16" s="25"/>
-      <c r="K16" s="25"/>
-      <c r="L16" s="25"/>
-      <c r="M16" s="25"/>
-      <c r="N16" s="25"/>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A17" s="25"/>
-      <c r="B17" s="26"/>
-      <c r="C17" s="26"/>
-      <c r="D17" s="28"/>
-      <c r="E17" s="28"/>
-      <c r="F17" s="28"/>
-      <c r="G17" s="25"/>
-      <c r="H17" s="25"/>
-      <c r="I17" s="25"/>
-      <c r="J17" s="25"/>
-      <c r="K17" s="25"/>
-      <c r="L17" s="25"/>
-      <c r="M17" s="25"/>
-      <c r="N17" s="25"/>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A18" s="45"/>
-      <c r="B18" s="46"/>
-      <c r="C18" s="46" t="s">
+      <c r="E16" s="52"/>
+      <c r="F16" s="52"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="18"/>
+      <c r="J16" s="18"/>
+      <c r="K16" s="18"/>
+      <c r="L16" s="18"/>
+      <c r="M16" s="18"/>
+      <c r="N16" s="18"/>
+    </row>
+    <row r="17" spans="1:14">
+      <c r="A17" s="18"/>
+      <c r="B17" s="29"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="52"/>
+      <c r="E17" s="52"/>
+      <c r="F17" s="52"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="18"/>
+      <c r="J17" s="18"/>
+      <c r="K17" s="18"/>
+      <c r="L17" s="18"/>
+      <c r="M17" s="18"/>
+      <c r="N17" s="18"/>
+    </row>
+    <row r="18" spans="1:14">
+      <c r="A18" s="19"/>
+      <c r="B18" s="21"/>
+      <c r="C18" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="D18" s="47" t="s">
+      <c r="D18" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="E18" s="48"/>
-      <c r="F18" s="49"/>
-      <c r="G18" s="50"/>
-      <c r="H18" s="51"/>
-      <c r="I18" s="52"/>
-      <c r="J18" s="50"/>
-      <c r="K18" s="51"/>
-      <c r="L18" s="52"/>
-      <c r="M18" s="50"/>
-      <c r="N18" s="52"/>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A19" s="53"/>
-      <c r="B19" s="54"/>
-      <c r="C19" s="54"/>
-      <c r="D19" s="55"/>
-      <c r="E19" s="56"/>
-      <c r="F19" s="57"/>
-      <c r="G19" s="58"/>
-      <c r="H19" s="59"/>
-      <c r="I19" s="60"/>
-      <c r="J19" s="58"/>
-      <c r="K19" s="59"/>
-      <c r="L19" s="60"/>
-      <c r="M19" s="58"/>
-      <c r="N19" s="60"/>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A20" s="29"/>
-      <c r="B20" s="31"/>
-      <c r="C20" s="31" t="s">
+      <c r="E18" s="54"/>
+      <c r="F18" s="55"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="24"/>
+      <c r="I18" s="25"/>
+      <c r="J18" s="23"/>
+      <c r="K18" s="24"/>
+      <c r="L18" s="25"/>
+      <c r="M18" s="23"/>
+      <c r="N18" s="25"/>
+    </row>
+    <row r="19" spans="1:14">
+      <c r="A19" s="20"/>
+      <c r="B19" s="22"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="56"/>
+      <c r="E19" s="57"/>
+      <c r="F19" s="58"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="27"/>
+      <c r="I19" s="28"/>
+      <c r="J19" s="26"/>
+      <c r="K19" s="27"/>
+      <c r="L19" s="28"/>
+      <c r="M19" s="26"/>
+      <c r="N19" s="28"/>
+    </row>
+    <row r="20" spans="1:14">
+      <c r="A20" s="12"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D20" s="33" t="s">
+      <c r="D20" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="E20" s="34"/>
-      <c r="F20" s="35"/>
-      <c r="G20" s="39"/>
-      <c r="H20" s="40"/>
-      <c r="I20" s="41"/>
-      <c r="J20" s="39"/>
-      <c r="K20" s="40"/>
-      <c r="L20" s="41"/>
-      <c r="M20" s="39"/>
-      <c r="N20" s="41"/>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A21" s="30"/>
-      <c r="B21" s="32"/>
-      <c r="C21" s="32"/>
-      <c r="D21" s="36"/>
-      <c r="E21" s="37"/>
-      <c r="F21" s="38"/>
-      <c r="G21" s="42"/>
-      <c r="H21" s="43"/>
-      <c r="I21" s="44"/>
-      <c r="J21" s="42"/>
-      <c r="K21" s="43"/>
-      <c r="L21" s="44"/>
-      <c r="M21" s="42"/>
-      <c r="N21" s="44"/>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A22" s="17"/>
-      <c r="B22" s="18">
-        <v>2.1</v>
-      </c>
-      <c r="C22" s="61"/>
-      <c r="D22" s="61"/>
-      <c r="E22" s="61"/>
-      <c r="F22" s="61"/>
-      <c r="G22" s="17"/>
-      <c r="H22" s="17"/>
-      <c r="I22" s="17"/>
-      <c r="J22" s="17"/>
-      <c r="K22" s="17"/>
-      <c r="L22" s="17"/>
-      <c r="M22" s="19"/>
-      <c r="N22" s="20"/>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A23" s="17"/>
-      <c r="B23" s="18"/>
-      <c r="C23" s="61"/>
-      <c r="D23" s="61"/>
-      <c r="E23" s="61"/>
-      <c r="F23" s="61"/>
-      <c r="G23" s="17"/>
-      <c r="H23" s="17"/>
-      <c r="I23" s="17"/>
-      <c r="J23" s="17"/>
-      <c r="K23" s="17"/>
-      <c r="L23" s="17"/>
-      <c r="M23" s="21"/>
-      <c r="N23" s="22"/>
+      <c r="E20" s="60"/>
+      <c r="F20" s="61"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="16"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="16"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="2"/>
+    </row>
+    <row r="21" spans="1:14">
+      <c r="A21" s="13"/>
+      <c r="B21" s="15"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="62"/>
+      <c r="E21" s="63"/>
+      <c r="F21" s="64"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="17"/>
+      <c r="L21" s="4"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="4"/>
+    </row>
+    <row r="22" spans="1:14">
+      <c r="A22" s="30"/>
+      <c r="B22" s="31">
+        <v>1.2</v>
+      </c>
+      <c r="C22" s="65" t="s">
+        <v>15</v>
+      </c>
+      <c r="D22" s="65"/>
+      <c r="E22" s="65"/>
+      <c r="F22" s="65"/>
+      <c r="G22" s="30"/>
+      <c r="H22" s="30"/>
+      <c r="I22" s="30"/>
+      <c r="J22" s="30"/>
+      <c r="K22" s="30"/>
+      <c r="L22" s="30"/>
+      <c r="M22" s="66"/>
+      <c r="N22" s="67"/>
+    </row>
+    <row r="23" spans="1:14">
+      <c r="A23" s="30"/>
+      <c r="B23" s="31"/>
+      <c r="C23" s="65"/>
+      <c r="D23" s="65"/>
+      <c r="E23" s="65"/>
+      <c r="F23" s="65"/>
+      <c r="G23" s="30"/>
+      <c r="H23" s="30"/>
+      <c r="I23" s="30"/>
+      <c r="J23" s="30"/>
+      <c r="K23" s="30"/>
+      <c r="L23" s="30"/>
+      <c r="M23" s="68"/>
+      <c r="N23" s="69"/>
+    </row>
+    <row r="24" spans="1:14">
+      <c r="A24" s="18"/>
+      <c r="B24" s="29"/>
+      <c r="C24" s="75" t="s">
+        <v>16</v>
+      </c>
+      <c r="D24" s="70"/>
+      <c r="E24" s="70"/>
+      <c r="F24" s="70"/>
+      <c r="G24" s="18"/>
+      <c r="H24" s="18"/>
+      <c r="I24" s="18"/>
+      <c r="J24" s="18"/>
+      <c r="K24" s="18"/>
+      <c r="L24" s="18"/>
+      <c r="M24" s="71"/>
+      <c r="N24" s="72"/>
+    </row>
+    <row r="25" spans="1:14">
+      <c r="A25" s="18"/>
+      <c r="B25" s="29"/>
+      <c r="C25" s="70"/>
+      <c r="D25" s="70"/>
+      <c r="E25" s="70"/>
+      <c r="F25" s="70"/>
+      <c r="G25" s="18"/>
+      <c r="H25" s="18"/>
+      <c r="I25" s="18"/>
+      <c r="J25" s="18"/>
+      <c r="K25" s="18"/>
+      <c r="L25" s="18"/>
+      <c r="M25" s="73"/>
+      <c r="N25" s="74"/>
+    </row>
+    <row r="26" spans="1:14">
+      <c r="A26" s="30"/>
+      <c r="B26" s="31">
+        <v>1.3</v>
+      </c>
+      <c r="C26" s="65" t="s">
+        <v>17</v>
+      </c>
+      <c r="D26" s="65"/>
+      <c r="E26" s="65"/>
+      <c r="F26" s="65"/>
+      <c r="G26" s="76">
+        <v>2</v>
+      </c>
+      <c r="H26" s="76"/>
+      <c r="I26" s="76"/>
+      <c r="J26" s="30"/>
+      <c r="K26" s="30"/>
+      <c r="L26" s="30"/>
+      <c r="M26" s="66"/>
+      <c r="N26" s="67"/>
+    </row>
+    <row r="27" spans="1:14">
+      <c r="A27" s="30"/>
+      <c r="B27" s="31"/>
+      <c r="C27" s="65"/>
+      <c r="D27" s="65"/>
+      <c r="E27" s="65"/>
+      <c r="F27" s="65"/>
+      <c r="G27" s="76"/>
+      <c r="H27" s="76"/>
+      <c r="I27" s="76"/>
+      <c r="J27" s="30"/>
+      <c r="K27" s="30"/>
+      <c r="L27" s="30"/>
+      <c r="M27" s="68"/>
+      <c r="N27" s="69"/>
+    </row>
+    <row r="28" spans="1:14">
+      <c r="A28" s="30"/>
+      <c r="B28" s="31">
+        <v>1.4</v>
+      </c>
+      <c r="C28" s="65" t="s">
+        <v>18</v>
+      </c>
+      <c r="D28" s="65"/>
+      <c r="E28" s="65"/>
+      <c r="F28" s="65"/>
+      <c r="G28" s="76"/>
+      <c r="H28" s="76"/>
+      <c r="I28" s="76"/>
+      <c r="J28" s="30"/>
+      <c r="K28" s="30"/>
+      <c r="L28" s="30"/>
+      <c r="M28" s="66"/>
+      <c r="N28" s="67"/>
+    </row>
+    <row r="29" spans="1:14">
+      <c r="A29" s="30"/>
+      <c r="B29" s="31"/>
+      <c r="C29" s="65"/>
+      <c r="D29" s="65"/>
+      <c r="E29" s="65"/>
+      <c r="F29" s="65"/>
+      <c r="G29" s="76"/>
+      <c r="H29" s="76"/>
+      <c r="I29" s="76"/>
+      <c r="J29" s="30"/>
+      <c r="K29" s="30"/>
+      <c r="L29" s="30"/>
+      <c r="M29" s="68"/>
+      <c r="N29" s="69"/>
+    </row>
+    <row r="30" spans="1:14">
+      <c r="A30" s="77" t="s">
+        <v>19</v>
+      </c>
+      <c r="B30" s="78"/>
+      <c r="C30" s="78"/>
+      <c r="D30" s="78"/>
+      <c r="E30" s="78"/>
+      <c r="F30" s="78"/>
+      <c r="G30" s="78"/>
+      <c r="H30" s="78"/>
+      <c r="I30" s="78"/>
+      <c r="J30" s="78"/>
+      <c r="K30" s="78"/>
+      <c r="L30" s="78"/>
+      <c r="M30" s="78"/>
+      <c r="N30" s="78"/>
+    </row>
+    <row r="31" spans="1:14">
+      <c r="A31" s="79"/>
+      <c r="B31" s="79"/>
+      <c r="C31" s="79"/>
+      <c r="D31" s="79"/>
+      <c r="E31" s="79"/>
+      <c r="F31" s="79"/>
+      <c r="G31" s="79"/>
+      <c r="H31" s="79"/>
+      <c r="I31" s="79"/>
+      <c r="J31" s="79"/>
+      <c r="K31" s="79"/>
+      <c r="L31" s="79"/>
+      <c r="M31" s="79"/>
+      <c r="N31" s="79"/>
+    </row>
+    <row r="32" spans="1:14">
+      <c r="A32" s="79"/>
+      <c r="B32" s="79"/>
+      <c r="C32" s="79"/>
+      <c r="D32" s="79"/>
+      <c r="E32" s="79"/>
+      <c r="F32" s="79"/>
+      <c r="G32" s="79"/>
+      <c r="H32" s="79"/>
+      <c r="I32" s="79"/>
+      <c r="J32" s="79"/>
+      <c r="K32" s="79"/>
+      <c r="L32" s="79"/>
+      <c r="M32" s="79"/>
+      <c r="N32" s="79"/>
+    </row>
+    <row r="33" spans="1:14">
+      <c r="A33" s="80" t="s">
+        <v>20</v>
+      </c>
+      <c r="B33" s="81"/>
+      <c r="C33" s="81"/>
+      <c r="D33" s="81"/>
+      <c r="E33" s="81"/>
+      <c r="F33" s="81"/>
+      <c r="G33" s="82"/>
+      <c r="H33" s="82"/>
+      <c r="I33" s="82"/>
+      <c r="J33" s="83"/>
+      <c r="K33" s="83"/>
+      <c r="L33" s="83"/>
+      <c r="M33" s="83"/>
+      <c r="N33" s="83"/>
+    </row>
+    <row r="34" spans="1:14">
+      <c r="A34" s="84"/>
+      <c r="B34" s="84"/>
+      <c r="C34" s="84"/>
+      <c r="D34" s="84"/>
+      <c r="E34" s="84"/>
+      <c r="F34" s="84"/>
+      <c r="G34" s="85"/>
+      <c r="H34" s="85"/>
+      <c r="I34" s="85"/>
+      <c r="J34" s="86"/>
+      <c r="K34" s="86"/>
+      <c r="L34" s="86"/>
+      <c r="M34" s="86"/>
+      <c r="N34" s="86"/>
+    </row>
+    <row r="35" spans="1:14">
+      <c r="A35" s="84"/>
+      <c r="B35" s="84"/>
+      <c r="C35" s="84"/>
+      <c r="D35" s="84"/>
+      <c r="E35" s="84"/>
+      <c r="F35" s="84"/>
+      <c r="G35" s="85"/>
+      <c r="H35" s="85"/>
+      <c r="I35" s="85"/>
+      <c r="J35" s="86"/>
+      <c r="K35" s="86"/>
+      <c r="L35" s="86"/>
+      <c r="M35" s="86"/>
+      <c r="N35" s="86"/>
     </row>
   </sheetData>
-  <mergeCells count="51">
-    <mergeCell ref="M20:N21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="C22:F23"/>
-    <mergeCell ref="G22:I23"/>
-    <mergeCell ref="J22:L23"/>
-    <mergeCell ref="M22:N23"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="D20:F21"/>
-    <mergeCell ref="G20:I21"/>
-    <mergeCell ref="J20:L21"/>
+  <mergeCells count="74">
+    <mergeCell ref="A30:N32"/>
+    <mergeCell ref="A33:F35"/>
+    <mergeCell ref="G33:I35"/>
+    <mergeCell ref="J33:L35"/>
+    <mergeCell ref="M33:N35"/>
+    <mergeCell ref="M26:N27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="C28:F29"/>
+    <mergeCell ref="G28:I29"/>
+    <mergeCell ref="J28:L29"/>
+    <mergeCell ref="M28:N29"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="C26:F27"/>
+    <mergeCell ref="G26:I27"/>
+    <mergeCell ref="J26:L27"/>
+    <mergeCell ref="A1:N4"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C24:F25"/>
+    <mergeCell ref="G24:I25"/>
+    <mergeCell ref="J24:L25"/>
+    <mergeCell ref="M24:N25"/>
+    <mergeCell ref="M12:N13"/>
+    <mergeCell ref="C5:D8"/>
+    <mergeCell ref="E5:F8"/>
+    <mergeCell ref="G5:I8"/>
+    <mergeCell ref="A9:F11"/>
+    <mergeCell ref="G9:I11"/>
+    <mergeCell ref="J9:L11"/>
+    <mergeCell ref="M9:N11"/>
+    <mergeCell ref="A5:B8"/>
+    <mergeCell ref="J5:L8"/>
+    <mergeCell ref="M5:N8"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:F13"/>
+    <mergeCell ref="G12:I13"/>
+    <mergeCell ref="J12:L13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="G14:I15"/>
+    <mergeCell ref="J14:L15"/>
+    <mergeCell ref="M14:N15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:F15"/>
     <mergeCell ref="M16:N17"/>
     <mergeCell ref="A18:A19"/>
     <mergeCell ref="B18:B19"/>
@@ -1269,30 +1600,19 @@
     <mergeCell ref="D16:F17"/>
     <mergeCell ref="G16:I17"/>
     <mergeCell ref="J16:L17"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="G14:I15"/>
-    <mergeCell ref="J14:L15"/>
-    <mergeCell ref="M14:N15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:F15"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:F13"/>
-    <mergeCell ref="G12:I13"/>
-    <mergeCell ref="J12:L13"/>
-    <mergeCell ref="M12:N13"/>
-    <mergeCell ref="C5:D8"/>
-    <mergeCell ref="E5:F8"/>
-    <mergeCell ref="G5:I8"/>
-    <mergeCell ref="A9:F11"/>
-    <mergeCell ref="G9:I11"/>
-    <mergeCell ref="J9:L11"/>
-    <mergeCell ref="M9:N11"/>
-    <mergeCell ref="A5:B8"/>
-    <mergeCell ref="J5:L8"/>
-    <mergeCell ref="M5:N8"/>
-    <mergeCell ref="A1:N4"/>
+    <mergeCell ref="M20:N21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="C22:F23"/>
+    <mergeCell ref="G22:I23"/>
+    <mergeCell ref="J22:L23"/>
+    <mergeCell ref="M22:N23"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D20:F21"/>
+    <mergeCell ref="G20:I21"/>
+    <mergeCell ref="J20:L21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
